--- a/newXLSX.xlsx
+++ b/newXLSX.xlsx
@@ -12,7 +12,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
+  <si>
+    <t>Hide your heart</t>
+  </si>
+  <si>
+    <t>Bonnie Tyler</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>CBS Records</t>
+  </si>
+  <si>
+    <t>9.90$</t>
+  </si>
+  <si>
+    <t>1988-01-21</t>
+  </si>
+  <si>
+    <t>Empire Burlesque</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>10.90$</t>
+  </si>
+  <si>
+    <t>1985-01-21</t>
+  </si>
   <si>
     <t>Greatest Hits</t>
   </si>
@@ -20,16 +56,280 @@
     <t>Dolly Parton</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>RCA</t>
   </si>
   <si>
-    <t>9.90$</t>
-  </si>
-  <si>
     <t>1982-01-21</t>
+  </si>
+  <si>
+    <t>Still got the blues</t>
+  </si>
+  <si>
+    <t>Gary Moore</t>
+  </si>
+  <si>
+    <t>Virgin records</t>
+  </si>
+  <si>
+    <t>10.20$</t>
+  </si>
+  <si>
+    <t>1990-01-21</t>
+  </si>
+  <si>
+    <t>Eros</t>
+  </si>
+  <si>
+    <t>Eros Ramazzotti</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>BMG</t>
+  </si>
+  <si>
+    <t>1997-01-21</t>
+  </si>
+  <si>
+    <t>One night only</t>
+  </si>
+  <si>
+    <t>Bee Gees</t>
+  </si>
+  <si>
+    <t>Polydor</t>
+  </si>
+  <si>
+    <t>1998-01-21</t>
+  </si>
+  <si>
+    <t>Sylvias Mother</t>
+  </si>
+  <si>
+    <t>Dr.Hook</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>8.10$</t>
+  </si>
+  <si>
+    <t>1973-01-21</t>
+  </si>
+  <si>
+    <t>Maggie May</t>
+  </si>
+  <si>
+    <t>Rod Stewart</t>
+  </si>
+  <si>
+    <t>Pickwick</t>
+  </si>
+  <si>
+    <t>8.50$</t>
+  </si>
+  <si>
+    <t>Romanza</t>
+  </si>
+  <si>
+    <t>Andrea Bocelli</t>
+  </si>
+  <si>
+    <t>10.80$</t>
+  </si>
+  <si>
+    <t>1996-01-21</t>
+  </si>
+  <si>
+    <t>When a man loves a woman</t>
+  </si>
+  <si>
+    <t>Percy Sledge</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
+  </si>
+  <si>
+    <t>8.70$</t>
+  </si>
+  <si>
+    <t>1987-01-21</t>
+  </si>
+  <si>
+    <t>Black angel</t>
+  </si>
+  <si>
+    <t>Savage Rose</t>
+  </si>
+  <si>
+    <t>Mega</t>
+  </si>
+  <si>
+    <t>1995-01-21</t>
+  </si>
+  <si>
+    <t>1999 Grammy Nominees</t>
+  </si>
+  <si>
+    <t>Many</t>
+  </si>
+  <si>
+    <t>Grammy</t>
+  </si>
+  <si>
+    <t>1999-01-21</t>
+  </si>
+  <si>
+    <t>For the good times</t>
+  </si>
+  <si>
+    <t>Kenny Rogers</t>
+  </si>
+  <si>
+    <t>Mucik Master</t>
+  </si>
+  <si>
+    <t>Big Willie style</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Tupelo Honey</t>
+  </si>
+  <si>
+    <t>Van Morrison</t>
+  </si>
+  <si>
+    <t>8.20$</t>
+  </si>
+  <si>
+    <t>1971-01-21</t>
+  </si>
+  <si>
+    <t>Soulsville</t>
+  </si>
+  <si>
+    <t>Jorn Hoel</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>WEA</t>
+  </si>
+  <si>
+    <t>7.90$</t>
+  </si>
+  <si>
+    <t>The very best of</t>
+  </si>
+  <si>
+    <t>Cat Stevens</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>8.90$</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Sam Brown</t>
+  </si>
+  <si>
+    <t>A and M</t>
+  </si>
+  <si>
+    <t>Bridge of Spies</t>
+  </si>
+  <si>
+    <t>T'Pau</t>
+  </si>
+  <si>
+    <t>Siren</t>
+  </si>
+  <si>
+    <t>Private Dancer</t>
+  </si>
+  <si>
+    <t>Tina Turner</t>
+  </si>
+  <si>
+    <t>Capitol</t>
+  </si>
+  <si>
+    <t>1983-01-21</t>
+  </si>
+  <si>
+    <t>Midt om natten</t>
+  </si>
+  <si>
+    <t>Kim Larsen</t>
+  </si>
+  <si>
+    <t>Medley</t>
+  </si>
+  <si>
+    <t>7.80$</t>
+  </si>
+  <si>
+    <t>Pavarotti Gala Concert</t>
+  </si>
+  <si>
+    <t>Luciano Pavarotti</t>
+  </si>
+  <si>
+    <t>DECCA</t>
+  </si>
+  <si>
+    <t>1991-01-21</t>
+  </si>
+  <si>
+    <t>The dock of the bay</t>
+  </si>
+  <si>
+    <t>Otis Redding</t>
+  </si>
+  <si>
+    <t>Stax Records</t>
+  </si>
+  <si>
+    <t>1968-01-21</t>
+  </si>
+  <si>
+    <t>Picture book</t>
+  </si>
+  <si>
+    <t>Simply Red</t>
+  </si>
+  <si>
+    <t>Elektra</t>
+  </si>
+  <si>
+    <t>7.20$</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>The Communards</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Unchain my heart</t>
+  </si>
+  <si>
+    <t>Joe Cocker</t>
+  </si>
+  <si>
+    <t>EMI</t>
   </si>
 </sst>
 </file>
@@ -74,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -102,22 +402,522 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/newXLSX.xlsx
+++ b/newXLSX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="106">
   <si>
     <t>Hide your heart</t>
   </si>
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -920,6 +920,526 @@
         <v>47</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/newXLSX.xlsx
+++ b/newXLSX.xlsx
@@ -12,7 +12,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="106">
+  <si>
+    <t>Empire Burlesque</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>10.90</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
   <si>
     <t>Hide your heart</t>
   </si>
@@ -26,28 +44,10 @@
     <t>CBS Records</t>
   </si>
   <si>
-    <t>9.90$</t>
-  </si>
-  <si>
-    <t>1988-01-21</t>
-  </si>
-  <si>
-    <t>Empire Burlesque</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Columbia</t>
-  </si>
-  <si>
-    <t>10.90$</t>
-  </si>
-  <si>
-    <t>1985-01-21</t>
+    <t>9.90</t>
+  </si>
+  <si>
+    <t>1988</t>
   </si>
   <si>
     <t>Greatest Hits</t>
@@ -59,7 +59,7 @@
     <t>RCA</t>
   </si>
   <si>
-    <t>1982-01-21</t>
+    <t>1982</t>
   </si>
   <si>
     <t>Still got the blues</t>
@@ -71,10 +71,10 @@
     <t>Virgin records</t>
   </si>
   <si>
-    <t>10.20$</t>
-  </si>
-  <si>
-    <t>1990-01-21</t>
+    <t>10.20</t>
+  </si>
+  <si>
+    <t>1990</t>
   </si>
   <si>
     <t>Eros</t>
@@ -89,7 +89,7 @@
     <t>BMG</t>
   </si>
   <si>
-    <t>1997-01-21</t>
+    <t>1997</t>
   </si>
   <si>
     <t>One night only</t>
@@ -101,7 +101,7 @@
     <t>Polydor</t>
   </si>
   <si>
-    <t>1998-01-21</t>
+    <t>1998</t>
   </si>
   <si>
     <t>Sylvias Mother</t>
@@ -113,10 +113,10 @@
     <t>CBS</t>
   </si>
   <si>
-    <t>8.10$</t>
-  </si>
-  <si>
-    <t>1973-01-21</t>
+    <t>8.10</t>
+  </si>
+  <si>
+    <t>1973</t>
   </si>
   <si>
     <t>Maggie May</t>
@@ -128,7 +128,7 @@
     <t>Pickwick</t>
   </si>
   <si>
-    <t>8.50$</t>
+    <t>8.50</t>
   </si>
   <si>
     <t>Romanza</t>
@@ -137,10 +137,10 @@
     <t>Andrea Bocelli</t>
   </si>
   <si>
-    <t>10.80$</t>
-  </si>
-  <si>
-    <t>1996-01-21</t>
+    <t>10.80</t>
+  </si>
+  <si>
+    <t>1996</t>
   </si>
   <si>
     <t>When a man loves a woman</t>
@@ -152,10 +152,10 @@
     <t>Atlantic</t>
   </si>
   <si>
-    <t>8.70$</t>
-  </si>
-  <si>
-    <t>1987-01-21</t>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>1987</t>
   </si>
   <si>
     <t>Black angel</t>
@@ -167,7 +167,7 @@
     <t>Mega</t>
   </si>
   <si>
-    <t>1995-01-21</t>
+    <t>1995</t>
   </si>
   <si>
     <t>1999 Grammy Nominees</t>
@@ -179,7 +179,7 @@
     <t>Grammy</t>
   </si>
   <si>
-    <t>1999-01-21</t>
+    <t>1999</t>
   </si>
   <si>
     <t>For the good times</t>
@@ -203,10 +203,10 @@
     <t>Van Morrison</t>
   </si>
   <si>
-    <t>8.20$</t>
-  </si>
-  <si>
-    <t>1971-01-21</t>
+    <t>8.20</t>
+  </si>
+  <si>
+    <t>1971</t>
   </si>
   <si>
     <t>Soulsville</t>
@@ -221,7 +221,7 @@
     <t>WEA</t>
   </si>
   <si>
-    <t>7.90$</t>
+    <t>7.90</t>
   </si>
   <si>
     <t>The very best of</t>
@@ -233,7 +233,7 @@
     <t>Island</t>
   </si>
   <si>
-    <t>8.90$</t>
+    <t>8.90</t>
   </si>
   <si>
     <t>Stop</t>
@@ -263,7 +263,7 @@
     <t>Capitol</t>
   </si>
   <si>
-    <t>1983-01-21</t>
+    <t>1983</t>
   </si>
   <si>
     <t>Midt om natten</t>
@@ -275,7 +275,7 @@
     <t>Medley</t>
   </si>
   <si>
-    <t>7.80$</t>
+    <t>7.80</t>
   </si>
   <si>
     <t>Pavarotti Gala Concert</t>
@@ -287,7 +287,7 @@
     <t>DECCA</t>
   </si>
   <si>
-    <t>1991-01-21</t>
+    <t>1991</t>
   </si>
   <si>
     <t>The dock of the bay</t>
@@ -299,7 +299,7 @@
     <t>Stax Records</t>
   </si>
   <si>
-    <t>1968-01-21</t>
+    <t>1968</t>
   </si>
   <si>
     <t>Picture book</t>
@@ -311,7 +311,7 @@
     <t>Elektra</t>
   </si>
   <si>
-    <t>7.20$</t>
+    <t>7.20</t>
   </si>
   <si>
     <t>Red</t>
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -422,379 +422,379 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
         <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -802,99 +802,99 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
         <v>47</v>
@@ -902,22 +902,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -942,379 +942,379 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
         <v>73</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F45" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E47" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
         <v>83</v>
@@ -1322,99 +1322,99 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F49" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F52" t="s">
         <v>47</v>
@@ -1422,21 +1422,1041 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" t="s">
+        <v>63</v>
+      </c>
+      <c r="F67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77" t="s">
+        <v>87</v>
+      </c>
+      <c r="F77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
         <v>103</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B78" t="s">
         <v>104</v>
       </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
         <v>105</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E78" t="s">
         <v>63</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" t="s">
+        <v>50</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>58</v>
+      </c>
+      <c r="E91" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" t="s">
+        <v>63</v>
+      </c>
+      <c r="F93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>65</v>
+      </c>
+      <c r="B94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" t="s">
+        <v>69</v>
+      </c>
+      <c r="F94" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>72</v>
+      </c>
+      <c r="E95" t="s">
+        <v>73</v>
+      </c>
+      <c r="F95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>76</v>
+      </c>
+      <c r="E96" t="s">
+        <v>73</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>79</v>
+      </c>
+      <c r="E97" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>82</v>
+      </c>
+      <c r="E98" t="s">
+        <v>73</v>
+      </c>
+      <c r="F98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" t="s">
+        <v>86</v>
+      </c>
+      <c r="E99" t="s">
+        <v>87</v>
+      </c>
+      <c r="F99" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>90</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>94</v>
+      </c>
+      <c r="E101" t="s">
+        <v>69</v>
+      </c>
+      <c r="F101" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" t="s">
+        <v>99</v>
+      </c>
+      <c r="F102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>87</v>
+      </c>
+      <c r="F103" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" t="s">
         <v>47</v>
       </c>
     </row>
